--- a/TBN_VertebrateList_Big5/protected_species_list_TBN.xlsx
+++ b/TBN_VertebrateList_Big5/protected_species_list_TBN.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\物種名錄\保育類野生動物名錄\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="欄位說明" sheetId="2" r:id="rId1"/>
     <sheet name="保育類野生動物名錄(TBN)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'保育類野生動物名錄(TBN)'!$A$1:$K$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'保育類野生動物名錄(TBN)'!$A$1:$M$253</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2321,10 +2321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TBN學名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2345,10 +2341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分類階層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保育等級版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2381,9 +2373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scientific name_TBN </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2416,13 +2405,25 @@
   </si>
   <si>
     <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_PSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林務局保育類名錄使用學名的分類階層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_PSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2944,20 +2945,21 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2967,7 @@
         <v>745</v>
       </c>
       <c r="B2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,36 +2975,36 @@
         <v>744</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3010,42 +3012,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -3060,13 +3062,13 @@
   <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
@@ -3086,10 +3088,10 @@
         <v>744</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>0</v>
@@ -3104,7 +3106,7 @@
         <v>704</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3121,7 +3123,7 @@
         <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F2">
         <v>416105</v>
@@ -3153,7 +3155,7 @@
         <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F3">
         <v>1024882</v>
@@ -3183,7 +3185,7 @@
         <v>508</v>
       </c>
       <c r="E4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F4">
         <v>1024484</v>
@@ -3213,7 +3215,7 @@
         <v>509</v>
       </c>
       <c r="E5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F5">
         <v>1024697</v>
@@ -3243,7 +3245,7 @@
         <v>508</v>
       </c>
       <c r="E6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F6">
         <v>1024735</v>
@@ -3273,7 +3275,7 @@
         <v>509</v>
       </c>
       <c r="E7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F7">
         <v>1025759</v>
@@ -3303,7 +3305,7 @@
         <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F8">
         <v>1025768</v>
@@ -3333,7 +3335,7 @@
         <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F9">
         <v>1023992</v>
@@ -3363,7 +3365,7 @@
         <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F10" s="1">
         <v>1024731</v>
@@ -3375,8 +3377,8 @@
       <c r="I10">
         <v>188</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>761</v>
+      <c r="J10" t="s">
+        <v>726</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -3395,7 +3397,7 @@
         <v>507</v>
       </c>
       <c r="E11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F11">
         <v>380580</v>
@@ -3427,7 +3429,7 @@
         <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F12">
         <v>380056</v>
@@ -3459,7 +3461,7 @@
         <v>507</v>
       </c>
       <c r="E13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F13">
         <v>380062</v>
@@ -3491,7 +3493,7 @@
         <v>507</v>
       </c>
       <c r="E14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F14">
         <v>380074</v>
@@ -3523,7 +3525,7 @@
         <v>508</v>
       </c>
       <c r="E15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F15">
         <v>380162</v>
@@ -3555,7 +3557,7 @@
         <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F16">
         <v>380163</v>
@@ -3587,7 +3589,7 @@
         <v>507</v>
       </c>
       <c r="E17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F17">
         <v>420867</v>
@@ -3619,7 +3621,7 @@
         <v>508</v>
       </c>
       <c r="E18" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F18">
         <v>1023790</v>
@@ -3649,7 +3651,7 @@
         <v>508</v>
       </c>
       <c r="E19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F19">
         <v>1024659</v>
@@ -3679,7 +3681,7 @@
         <v>508</v>
       </c>
       <c r="E20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F20">
         <v>380230</v>
@@ -3711,7 +3713,7 @@
         <v>508</v>
       </c>
       <c r="E21" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F21">
         <v>1024943</v>
@@ -3741,7 +3743,7 @@
         <v>508</v>
       </c>
       <c r="E22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F22">
         <v>380236</v>
@@ -3773,7 +3775,7 @@
         <v>509</v>
       </c>
       <c r="E23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F23">
         <v>380248</v>
@@ -3805,7 +3807,7 @@
         <v>508</v>
       </c>
       <c r="E24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F24">
         <v>380222</v>
@@ -3837,7 +3839,7 @@
         <v>508</v>
       </c>
       <c r="E25" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F25">
         <v>1025729</v>
@@ -3867,7 +3869,7 @@
         <v>507</v>
       </c>
       <c r="E26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F26">
         <v>380128</v>
@@ -3899,7 +3901,7 @@
         <v>508</v>
       </c>
       <c r="E27" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F27">
         <v>380132</v>
@@ -3931,7 +3933,7 @@
         <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F28">
         <v>404565</v>
@@ -3963,7 +3965,7 @@
         <v>507</v>
       </c>
       <c r="E29" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F29">
         <v>380153</v>
@@ -3995,7 +3997,7 @@
         <v>509</v>
       </c>
       <c r="E30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F30">
         <v>380257</v>
@@ -4027,7 +4029,7 @@
         <v>507</v>
       </c>
       <c r="E31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F31">
         <v>1025242</v>
@@ -4057,7 +4059,7 @@
         <v>509</v>
       </c>
       <c r="E32" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F32">
         <v>380259</v>
@@ -4089,7 +4091,7 @@
         <v>507</v>
       </c>
       <c r="E33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F33">
         <v>380260</v>
@@ -4121,7 +4123,7 @@
         <v>507</v>
       </c>
       <c r="E34" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F34">
         <v>1025693</v>
@@ -4151,7 +4153,7 @@
         <v>508</v>
       </c>
       <c r="E35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F35">
         <v>1024716</v>
@@ -4181,7 +4183,7 @@
         <v>507</v>
       </c>
       <c r="E36" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F36">
         <v>1023423</v>
@@ -4211,7 +4213,7 @@
         <v>507</v>
       </c>
       <c r="E37" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F37">
         <v>1023424</v>
@@ -4241,7 +4243,7 @@
         <v>507</v>
       </c>
       <c r="E38" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F38">
         <v>380099</v>
@@ -4273,7 +4275,7 @@
         <v>507</v>
       </c>
       <c r="E39" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F39">
         <v>1023425</v>
@@ -4303,7 +4305,7 @@
         <v>507</v>
       </c>
       <c r="E40" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F40">
         <v>1023426</v>
@@ -4333,7 +4335,7 @@
         <v>507</v>
       </c>
       <c r="E41" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F41">
         <v>380105</v>
@@ -4365,7 +4367,7 @@
         <v>507</v>
       </c>
       <c r="E42" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F42">
         <v>1023965</v>
@@ -4395,7 +4397,7 @@
         <v>507</v>
       </c>
       <c r="E43" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F43">
         <v>380109</v>
@@ -4427,7 +4429,7 @@
         <v>507</v>
       </c>
       <c r="E44" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F44">
         <v>1023966</v>
@@ -4457,7 +4459,7 @@
         <v>507</v>
       </c>
       <c r="E45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F45">
         <v>1024209</v>
@@ -4487,7 +4489,7 @@
         <v>509</v>
       </c>
       <c r="E46" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F46">
         <v>421135</v>
@@ -4519,7 +4521,7 @@
         <v>507</v>
       </c>
       <c r="E47" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F47">
         <v>1024812</v>
@@ -4549,7 +4551,7 @@
         <v>507</v>
       </c>
       <c r="E48" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F48">
         <v>1025068</v>
@@ -4579,7 +4581,7 @@
         <v>507</v>
       </c>
       <c r="E49" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F49">
         <v>1025168</v>
@@ -4609,7 +4611,7 @@
         <v>507</v>
       </c>
       <c r="E50" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F50">
         <v>1025516</v>
@@ -4639,7 +4641,7 @@
         <v>509</v>
       </c>
       <c r="E51" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F51">
         <v>1024929</v>
@@ -4669,7 +4671,7 @@
         <v>507</v>
       </c>
       <c r="E52" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F52">
         <v>1024354</v>
@@ -4699,7 +4701,7 @@
         <v>507</v>
       </c>
       <c r="E53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F53">
         <v>1024355</v>
@@ -4729,7 +4731,7 @@
         <v>507</v>
       </c>
       <c r="E54" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F54">
         <v>1024356</v>
@@ -4759,7 +4761,7 @@
         <v>508</v>
       </c>
       <c r="E55" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F55">
         <v>380285</v>
@@ -4791,7 +4793,7 @@
         <v>507</v>
       </c>
       <c r="E56" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F56">
         <v>380289</v>
@@ -4823,7 +4825,7 @@
         <v>507</v>
       </c>
       <c r="E57" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F57">
         <v>1025193</v>
@@ -4853,7 +4855,7 @@
         <v>509</v>
       </c>
       <c r="E58" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F58">
         <v>380293</v>
@@ -4885,7 +4887,7 @@
         <v>509</v>
       </c>
       <c r="E59" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F59">
         <v>380294</v>
@@ -4917,7 +4919,7 @@
         <v>508</v>
       </c>
       <c r="E60" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F60">
         <v>380298</v>
@@ -4949,7 +4951,7 @@
         <v>507</v>
       </c>
       <c r="E61" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F61">
         <v>1024015</v>
@@ -4979,7 +4981,7 @@
         <v>508</v>
       </c>
       <c r="E62" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F62">
         <v>380336</v>
@@ -5011,7 +5013,7 @@
         <v>507</v>
       </c>
       <c r="E63" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F63">
         <v>404581</v>
@@ -5043,7 +5045,7 @@
         <v>507</v>
       </c>
       <c r="E64" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F64">
         <v>1024219</v>
@@ -5073,7 +5075,7 @@
         <v>508</v>
       </c>
       <c r="E65" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F65">
         <v>1024676</v>
@@ -5103,7 +5105,7 @@
         <v>508</v>
       </c>
       <c r="E66" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F66">
         <v>425192</v>
@@ -5135,7 +5137,7 @@
         <v>508</v>
       </c>
       <c r="E67" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F67">
         <v>1025318</v>
@@ -5165,7 +5167,7 @@
         <v>508</v>
       </c>
       <c r="E68" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F68">
         <v>1024598</v>
@@ -5195,7 +5197,7 @@
         <v>508</v>
       </c>
       <c r="E69" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F69">
         <v>380455</v>
@@ -5227,7 +5229,7 @@
         <v>507</v>
       </c>
       <c r="E70" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F70">
         <v>1024395</v>
@@ -5257,7 +5259,7 @@
         <v>507</v>
       </c>
       <c r="E71" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F71">
         <v>404589</v>
@@ -5289,7 +5291,7 @@
         <v>507</v>
       </c>
       <c r="E72" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F72">
         <v>428597</v>
@@ -5321,7 +5323,7 @@
         <v>507</v>
       </c>
       <c r="E73" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F73">
         <v>428595</v>
@@ -5353,7 +5355,7 @@
         <v>508</v>
       </c>
       <c r="E74" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F74">
         <v>380468</v>
@@ -5385,7 +5387,7 @@
         <v>508</v>
       </c>
       <c r="E75" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F75">
         <v>380467</v>
@@ -5417,7 +5419,7 @@
         <v>507</v>
       </c>
       <c r="E76" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F76">
         <v>1025642</v>
@@ -5447,7 +5449,7 @@
         <v>507</v>
       </c>
       <c r="E77" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F77">
         <v>1024234</v>
@@ -5477,7 +5479,7 @@
         <v>508</v>
       </c>
       <c r="E78" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F78">
         <v>1024921</v>
@@ -5507,7 +5509,7 @@
         <v>508</v>
       </c>
       <c r="E79" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F79">
         <v>1025204</v>
@@ -5537,7 +5539,7 @@
         <v>508</v>
       </c>
       <c r="E80" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F80">
         <v>1025629</v>
@@ -5567,7 +5569,7 @@
         <v>508</v>
       </c>
       <c r="E81" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F81">
         <v>419684</v>
@@ -5599,7 +5601,7 @@
         <v>507</v>
       </c>
       <c r="E82" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F82">
         <v>1025011</v>
@@ -5629,7 +5631,7 @@
         <v>507</v>
       </c>
       <c r="E83" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F83">
         <v>1025012</v>
@@ -5659,7 +5661,7 @@
         <v>508</v>
       </c>
       <c r="E84" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F84">
         <v>1025134</v>
@@ -5689,7 +5691,7 @@
         <v>508</v>
       </c>
       <c r="E85" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F85">
         <v>1025162</v>
@@ -5719,7 +5721,7 @@
         <v>507</v>
       </c>
       <c r="E86" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F86">
         <v>432166</v>
@@ -5751,7 +5753,7 @@
         <v>511</v>
       </c>
       <c r="E87" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F87">
         <v>1025140</v>
@@ -5781,7 +5783,7 @@
         <v>507</v>
       </c>
       <c r="E88" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F88">
         <v>380436</v>
@@ -5813,7 +5815,7 @@
         <v>507</v>
       </c>
       <c r="E89" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F89">
         <v>380440</v>
@@ -5845,7 +5847,7 @@
         <v>508</v>
       </c>
       <c r="E90" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F90">
         <v>380442</v>
@@ -5877,7 +5879,7 @@
         <v>507</v>
       </c>
       <c r="E91" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F91">
         <v>1023443</v>
@@ -5907,7 +5909,7 @@
         <v>507</v>
       </c>
       <c r="E92" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F92">
         <v>419446</v>
@@ -5939,7 +5941,7 @@
         <v>508</v>
       </c>
       <c r="E93" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F93">
         <v>404634</v>
@@ -5971,7 +5973,7 @@
         <v>507</v>
       </c>
       <c r="E94" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F94">
         <v>432360</v>
@@ -6003,7 +6005,7 @@
         <v>507</v>
       </c>
       <c r="E95" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F95">
         <v>417886</v>
@@ -6035,7 +6037,7 @@
         <v>507</v>
       </c>
       <c r="E96" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F96">
         <v>1025725</v>
@@ -6065,7 +6067,7 @@
         <v>508</v>
       </c>
       <c r="E97" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F97">
         <v>380486</v>
@@ -6097,7 +6099,7 @@
         <v>507</v>
       </c>
       <c r="E98" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F98">
         <v>1024117</v>
@@ -6127,7 +6129,7 @@
         <v>507</v>
       </c>
       <c r="E99" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F99">
         <v>1025227</v>
@@ -6157,7 +6159,7 @@
         <v>507</v>
       </c>
       <c r="E100" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F100">
         <v>419413</v>
@@ -6189,7 +6191,7 @@
         <v>507</v>
       </c>
       <c r="E101" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F101">
         <v>419414</v>
@@ -6221,7 +6223,7 @@
         <v>509</v>
       </c>
       <c r="E102" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F102">
         <v>419415</v>
@@ -6253,7 +6255,7 @@
         <v>509</v>
       </c>
       <c r="E103" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F103">
         <v>419416</v>
@@ -6285,7 +6287,7 @@
         <v>507</v>
       </c>
       <c r="E104" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F104">
         <v>417958</v>
@@ -6317,7 +6319,7 @@
         <v>509</v>
       </c>
       <c r="E105" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F105">
         <v>417808</v>
@@ -6349,7 +6351,7 @@
         <v>507</v>
       </c>
       <c r="E106" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F106">
         <v>1023655</v>
@@ -6379,7 +6381,7 @@
         <v>507</v>
       </c>
       <c r="E107" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F107">
         <v>1023656</v>
@@ -6409,7 +6411,7 @@
         <v>507</v>
       </c>
       <c r="E108" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F108">
         <v>1024414</v>
@@ -6439,7 +6441,7 @@
         <v>507</v>
       </c>
       <c r="E109" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F109">
         <v>380500</v>
@@ -6471,7 +6473,7 @@
         <v>507</v>
       </c>
       <c r="E110" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F110">
         <v>1024923</v>
@@ -6501,7 +6503,7 @@
         <v>507</v>
       </c>
       <c r="E111" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F111">
         <v>1025028</v>
@@ -6531,7 +6533,7 @@
         <v>507</v>
       </c>
       <c r="E112" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F112">
         <v>1025029</v>
@@ -6561,7 +6563,7 @@
         <v>507</v>
       </c>
       <c r="E113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F113">
         <v>1025030</v>
@@ -6591,7 +6593,7 @@
         <v>507</v>
       </c>
       <c r="E114" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F114">
         <v>1025563</v>
@@ -6621,7 +6623,7 @@
         <v>507</v>
       </c>
       <c r="E115" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F115">
         <v>1025564</v>
@@ -6651,7 +6653,7 @@
         <v>509</v>
       </c>
       <c r="E116" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F116">
         <v>1025744</v>
@@ -6681,7 +6683,7 @@
         <v>507</v>
       </c>
       <c r="E117" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F117">
         <v>380622</v>
@@ -6713,7 +6715,7 @@
         <v>507</v>
       </c>
       <c r="E118" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F118">
         <v>380623</v>
@@ -6745,7 +6747,7 @@
         <v>507</v>
       </c>
       <c r="E119" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F119">
         <v>380627</v>
@@ -6777,7 +6779,7 @@
         <v>507</v>
       </c>
       <c r="E120" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F120">
         <v>380667</v>
@@ -6809,7 +6811,7 @@
         <v>507</v>
       </c>
       <c r="E121" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F121">
         <v>380674</v>
@@ -6841,7 +6843,7 @@
         <v>508</v>
       </c>
       <c r="E122" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F122">
         <v>380686</v>
@@ -6873,7 +6875,7 @@
         <v>509</v>
       </c>
       <c r="E123" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F123">
         <v>380630</v>
@@ -6905,7 +6907,7 @@
         <v>508</v>
       </c>
       <c r="E124" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F124">
         <v>427266</v>
@@ -6937,7 +6939,7 @@
         <v>510</v>
       </c>
       <c r="E125" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F125">
         <v>380642</v>
@@ -6969,7 +6971,7 @@
         <v>508</v>
       </c>
       <c r="E126" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F126">
         <v>380654</v>
@@ -7001,7 +7003,7 @@
         <v>507</v>
       </c>
       <c r="E127" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F127">
         <v>380657</v>
@@ -7033,7 +7035,7 @@
         <v>508</v>
       </c>
       <c r="E128" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F128">
         <v>380659</v>
@@ -7065,7 +7067,7 @@
         <v>507</v>
       </c>
       <c r="E129" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F129">
         <v>421733</v>
@@ -7097,7 +7099,7 @@
         <v>508</v>
       </c>
       <c r="E130" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F130">
         <v>1025481</v>
@@ -7127,7 +7129,7 @@
         <v>507</v>
       </c>
       <c r="E131" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F131">
         <v>421735</v>
@@ -7159,7 +7161,7 @@
         <v>507</v>
       </c>
       <c r="E132" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F132">
         <v>418194</v>
@@ -7191,7 +7193,7 @@
         <v>507</v>
       </c>
       <c r="E133" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F133">
         <v>427241</v>
@@ -7223,7 +7225,7 @@
         <v>507</v>
       </c>
       <c r="E134" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F134">
         <v>380702</v>
@@ -7255,7 +7257,7 @@
         <v>507</v>
       </c>
       <c r="E135" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F135">
         <v>1025036</v>
@@ -7285,7 +7287,7 @@
         <v>508</v>
       </c>
       <c r="E136" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F136">
         <v>380704</v>
@@ -7317,7 +7319,7 @@
         <v>509</v>
       </c>
       <c r="E137" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F137">
         <v>380611</v>
@@ -7349,7 +7351,7 @@
         <v>507</v>
       </c>
       <c r="E138" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F138">
         <v>417641</v>
@@ -7381,7 +7383,7 @@
         <v>509</v>
       </c>
       <c r="E139" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F139">
         <v>380612</v>
@@ -7413,7 +7415,7 @@
         <v>507</v>
       </c>
       <c r="E140" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F140">
         <v>380610</v>
@@ -7445,7 +7447,7 @@
         <v>507</v>
       </c>
       <c r="E141" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F141">
         <v>416138</v>
@@ -7477,7 +7479,7 @@
         <v>507</v>
       </c>
       <c r="E142" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F142">
         <v>416658</v>
@@ -7509,7 +7511,7 @@
         <v>508</v>
       </c>
       <c r="E143" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F143">
         <v>418420</v>
@@ -7541,7 +7543,7 @@
         <v>507</v>
       </c>
       <c r="E144" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F144">
         <v>380048</v>
@@ -7573,7 +7575,7 @@
         <v>507</v>
       </c>
       <c r="E145" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F145">
         <v>380049</v>
@@ -7605,7 +7607,7 @@
         <v>508</v>
       </c>
       <c r="E146" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F146">
         <v>380051</v>
@@ -7637,7 +7639,7 @@
         <v>508</v>
       </c>
       <c r="E147" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F147">
         <v>380052</v>
@@ -7669,7 +7671,7 @@
         <v>507</v>
       </c>
       <c r="E148" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F148">
         <v>380053</v>
@@ -7701,7 +7703,7 @@
         <v>509</v>
       </c>
       <c r="E149" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F149">
         <v>380054</v>
@@ -7733,7 +7735,7 @@
         <v>509</v>
       </c>
       <c r="E150" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F150">
         <v>413087</v>
@@ -7765,7 +7767,7 @@
         <v>509</v>
       </c>
       <c r="E151" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F151">
         <v>413088</v>
@@ -7797,7 +7799,7 @@
         <v>509</v>
       </c>
       <c r="E152" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F152">
         <v>380055</v>
@@ -7829,7 +7831,7 @@
         <v>507</v>
       </c>
       <c r="E153" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F153">
         <v>380992</v>
@@ -7861,7 +7863,7 @@
         <v>508</v>
       </c>
       <c r="E154" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F154">
         <v>383544</v>
@@ -7893,7 +7895,7 @@
         <v>508</v>
       </c>
       <c r="E155" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F155">
         <v>380993</v>
@@ -7925,7 +7927,7 @@
         <v>508</v>
       </c>
       <c r="E156" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F156">
         <v>381023</v>
@@ -7957,7 +7959,7 @@
         <v>508</v>
       </c>
       <c r="E157" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F157">
         <v>381024</v>
@@ -7989,7 +7991,7 @@
         <v>507</v>
       </c>
       <c r="E158" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F158">
         <v>381020</v>
@@ -8021,7 +8023,7 @@
         <v>509</v>
       </c>
       <c r="E159" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F159">
         <v>395247</v>
@@ -8053,7 +8055,7 @@
         <v>509</v>
       </c>
       <c r="E160" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F160">
         <v>381028</v>
@@ -8085,7 +8087,7 @@
         <v>508</v>
       </c>
       <c r="E161" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F161">
         <v>382917</v>
@@ -8117,7 +8119,7 @@
         <v>509</v>
       </c>
       <c r="E162" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F162">
         <v>380528</v>
@@ -8149,7 +8151,7 @@
         <v>509</v>
       </c>
       <c r="E163" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F163">
         <v>380529</v>
@@ -8181,7 +8183,7 @@
         <v>509</v>
       </c>
       <c r="E164" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F164">
         <v>380530</v>
@@ -8213,7 +8215,7 @@
         <v>509</v>
       </c>
       <c r="E165" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F165">
         <v>385002</v>
@@ -8245,7 +8247,7 @@
         <v>509</v>
       </c>
       <c r="E166" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F166">
         <v>385001</v>
@@ -8277,7 +8279,7 @@
         <v>509</v>
       </c>
       <c r="E167" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F167">
         <v>380531</v>
@@ -8309,7 +8311,7 @@
         <v>509</v>
       </c>
       <c r="E168" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F168">
         <v>380532</v>
@@ -8341,7 +8343,7 @@
         <v>509</v>
       </c>
       <c r="E169" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F169">
         <v>380541</v>
@@ -8373,7 +8375,7 @@
         <v>507</v>
       </c>
       <c r="E170" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F170">
         <v>380546</v>
@@ -8405,7 +8407,7 @@
         <v>509</v>
       </c>
       <c r="E171" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F171">
         <v>380548</v>
@@ -8437,7 +8439,7 @@
         <v>509</v>
       </c>
       <c r="E172" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F172">
         <v>380551</v>
@@ -8469,7 +8471,7 @@
         <v>507</v>
       </c>
       <c r="E173" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F173">
         <v>1023581</v>
@@ -8499,7 +8501,7 @@
         <v>507</v>
       </c>
       <c r="E174" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F174">
         <v>1024993</v>
@@ -8529,7 +8531,7 @@
         <v>507</v>
       </c>
       <c r="E175" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F175">
         <v>419698</v>
@@ -8561,7 +8563,7 @@
         <v>507</v>
       </c>
       <c r="E176" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F176">
         <v>1025543</v>
@@ -8591,7 +8593,7 @@
         <v>507</v>
       </c>
       <c r="E177" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F177">
         <v>1025545</v>
@@ -8621,7 +8623,7 @@
         <v>507</v>
       </c>
       <c r="E178" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F178">
         <v>1025547</v>
@@ -8651,7 +8653,7 @@
         <v>507</v>
       </c>
       <c r="E179" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F179">
         <v>1025652</v>
@@ -8681,7 +8683,7 @@
         <v>509</v>
       </c>
       <c r="E180" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F180">
         <v>419712</v>
@@ -8713,7 +8715,7 @@
         <v>509</v>
       </c>
       <c r="E181" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F181">
         <v>404624</v>
@@ -8745,7 +8747,7 @@
         <v>509</v>
       </c>
       <c r="E182" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F182">
         <v>404630</v>
@@ -8777,7 +8779,7 @@
         <v>509</v>
       </c>
       <c r="E183" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F183">
         <v>404632</v>
@@ -8809,7 +8811,7 @@
         <v>509</v>
       </c>
       <c r="E184" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F184">
         <v>380614</v>
@@ -8841,7 +8843,7 @@
         <v>509</v>
       </c>
       <c r="E185" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F185">
         <v>380615</v>
@@ -8873,7 +8875,7 @@
         <v>509</v>
       </c>
       <c r="E186" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F186">
         <v>380616</v>
@@ -8905,7 +8907,7 @@
         <v>509</v>
       </c>
       <c r="E187" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F187">
         <v>380617</v>
@@ -8937,7 +8939,7 @@
         <v>509</v>
       </c>
       <c r="E188" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F188">
         <v>380618</v>
@@ -8969,7 +8971,7 @@
         <v>507</v>
       </c>
       <c r="E189" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F189">
         <v>381941</v>
@@ -9001,7 +9003,7 @@
         <v>507</v>
       </c>
       <c r="E190" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F190">
         <v>382434</v>
@@ -9033,7 +9035,7 @@
         <v>507</v>
       </c>
       <c r="E191" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F191" s="2">
         <v>380102</v>
@@ -9065,7 +9067,7 @@
         <v>509</v>
       </c>
       <c r="E192" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F192" s="3">
         <v>380104</v>
@@ -9097,7 +9099,7 @@
         <v>507</v>
       </c>
       <c r="E193" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F193" s="3">
         <v>380291</v>
@@ -9129,7 +9131,7 @@
         <v>507</v>
       </c>
       <c r="E194" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F194" s="2">
         <v>380534</v>
@@ -9161,7 +9163,7 @@
         <v>507</v>
       </c>
       <c r="E195" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F195" s="2">
         <v>380535</v>
@@ -9193,7 +9195,7 @@
         <v>507</v>
       </c>
       <c r="E196" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F196" s="2">
         <v>380536</v>
@@ -9225,7 +9227,7 @@
         <v>507</v>
       </c>
       <c r="E197" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F197" s="2">
         <v>380537</v>
@@ -9257,7 +9259,7 @@
         <v>507</v>
       </c>
       <c r="E198" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F198" s="2">
         <v>380538</v>
@@ -9289,7 +9291,7 @@
         <v>507</v>
       </c>
       <c r="E199" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F199" s="2">
         <v>380539</v>
@@ -9321,7 +9323,7 @@
         <v>507</v>
       </c>
       <c r="E200" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F200" s="2">
         <v>380540</v>
@@ -9353,7 +9355,7 @@
         <v>507</v>
       </c>
       <c r="E201" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F201" s="2">
         <v>380542</v>
@@ -9385,7 +9387,7 @@
         <v>507</v>
       </c>
       <c r="E202" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F202" s="2">
         <v>380543</v>
@@ -9417,7 +9419,7 @@
         <v>507</v>
       </c>
       <c r="E203" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F203" s="2">
         <v>380544</v>
@@ -9449,7 +9451,7 @@
         <v>507</v>
       </c>
       <c r="E204" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F204" s="2">
         <v>380545</v>
@@ -9481,7 +9483,7 @@
         <v>507</v>
       </c>
       <c r="E205" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F205" s="4">
         <v>380547</v>
@@ -9513,7 +9515,7 @@
         <v>507</v>
       </c>
       <c r="E206" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F206" s="2">
         <v>380549</v>
@@ -9545,7 +9547,7 @@
         <v>507</v>
       </c>
       <c r="E207" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F207" s="2">
         <v>380550</v>
@@ -9577,7 +9579,7 @@
         <v>509</v>
       </c>
       <c r="E208" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F208" s="3">
         <v>380552</v>
@@ -9609,7 +9611,7 @@
         <v>507</v>
       </c>
       <c r="E209" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F209" s="2">
         <v>380554</v>
@@ -9641,7 +9643,7 @@
         <v>507</v>
       </c>
       <c r="E210" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F210" s="2">
         <v>380555</v>
@@ -9673,7 +9675,7 @@
         <v>507</v>
       </c>
       <c r="E211" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F211" s="2">
         <v>380556</v>
@@ -9705,7 +9707,7 @@
         <v>508</v>
       </c>
       <c r="E212" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F212" s="3">
         <v>380643</v>
@@ -9737,7 +9739,7 @@
         <v>509</v>
       </c>
       <c r="E213" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F213" s="3">
         <v>382788</v>
@@ -9769,7 +9771,7 @@
         <v>507</v>
       </c>
       <c r="E214" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F214" s="2">
         <v>385000</v>
@@ -9801,7 +9803,7 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F215" s="2">
         <v>385003</v>
@@ -9833,7 +9835,7 @@
         <v>507</v>
       </c>
       <c r="E216" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F216" s="2">
         <v>404551</v>
@@ -9865,7 +9867,7 @@
         <v>507</v>
       </c>
       <c r="E217" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F217" s="2">
         <v>404587</v>
@@ -9897,7 +9899,7 @@
         <v>507</v>
       </c>
       <c r="E218" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F218" s="2">
         <v>404588</v>
@@ -9929,7 +9931,7 @@
         <v>509</v>
       </c>
       <c r="E219" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F219" s="3">
         <v>416107</v>
@@ -9961,7 +9963,7 @@
         <v>507</v>
       </c>
       <c r="E220" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F220" s="2">
         <v>416110</v>
@@ -9993,7 +9995,7 @@
         <v>507</v>
       </c>
       <c r="E221" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F221" s="2">
         <v>417722</v>
@@ -10025,7 +10027,7 @@
         <v>507</v>
       </c>
       <c r="E222" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F222" s="3">
         <v>417867</v>
@@ -10057,7 +10059,7 @@
         <v>507</v>
       </c>
       <c r="E223" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F223" s="2">
         <v>418130</v>
@@ -10089,7 +10091,7 @@
         <v>507</v>
       </c>
       <c r="E224" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F224" s="2">
         <v>419631</v>
@@ -10121,7 +10123,7 @@
         <v>507</v>
       </c>
       <c r="E225" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F225" s="2">
         <v>420877</v>
@@ -10153,7 +10155,7 @@
         <v>507</v>
       </c>
       <c r="E226" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F226" s="2">
         <v>427142</v>
@@ -10185,7 +10187,7 @@
         <v>507</v>
       </c>
       <c r="E227" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F227" s="2">
         <v>427287</v>
@@ -10217,7 +10219,7 @@
         <v>507</v>
       </c>
       <c r="E228" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F228" s="2">
         <v>428071</v>
@@ -10249,7 +10251,7 @@
         <v>507</v>
       </c>
       <c r="E229" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F229" s="4">
         <v>428564</v>
@@ -10281,7 +10283,7 @@
         <v>509</v>
       </c>
       <c r="E230" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F230" s="3">
         <v>428568</v>
@@ -10313,7 +10315,7 @@
         <v>507</v>
       </c>
       <c r="E231" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F231" s="2">
         <v>430503</v>
@@ -10345,7 +10347,7 @@
         <v>507</v>
       </c>
       <c r="E232" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F232" s="3">
         <v>431229</v>
@@ -10377,7 +10379,7 @@
         <v>507</v>
       </c>
       <c r="E233" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F233" s="2">
         <v>432102</v>
@@ -10409,7 +10411,7 @@
         <v>509</v>
       </c>
       <c r="E234" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F234" s="3">
         <v>432194</v>
@@ -10441,7 +10443,7 @@
         <v>509</v>
       </c>
       <c r="E235" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F235" s="3">
         <v>432195</v>
@@ -10473,7 +10475,7 @@
         <v>507</v>
       </c>
       <c r="E236" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F236" s="4">
         <v>432368</v>
@@ -10505,7 +10507,7 @@
         <v>507</v>
       </c>
       <c r="E237" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F237" s="2">
         <v>1023421</v>
@@ -10535,7 +10537,7 @@
         <v>507</v>
       </c>
       <c r="E238" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F238" s="2">
         <v>1023422</v>
@@ -10565,7 +10567,7 @@
         <v>507</v>
       </c>
       <c r="E239" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F239" s="2">
         <v>1023625</v>
@@ -10595,7 +10597,7 @@
         <v>507</v>
       </c>
       <c r="E240" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F240" s="2">
         <v>1023666</v>
@@ -10625,7 +10627,7 @@
         <v>507</v>
       </c>
       <c r="E241" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F241" s="2">
         <v>1023692</v>
@@ -10655,7 +10657,7 @@
         <v>507</v>
       </c>
       <c r="E242" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F242" s="2">
         <v>1023759</v>
@@ -10685,7 +10687,7 @@
         <v>507</v>
       </c>
       <c r="E243" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F243" s="2">
         <v>1023768</v>
@@ -10715,7 +10717,7 @@
         <v>507</v>
       </c>
       <c r="E244" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F244" s="2">
         <v>1023769</v>
@@ -10745,7 +10747,7 @@
         <v>507</v>
       </c>
       <c r="E245" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F245" s="2">
         <v>1024353</v>
@@ -10775,7 +10777,7 @@
         <v>507</v>
       </c>
       <c r="E246" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F246" s="2">
         <v>1024454</v>
@@ -10805,7 +10807,7 @@
         <v>507</v>
       </c>
       <c r="E247" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F247" s="2">
         <v>1024552</v>
@@ -10835,7 +10837,7 @@
         <v>507</v>
       </c>
       <c r="E248" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F248" s="2">
         <v>1024731</v>
@@ -10865,7 +10867,7 @@
         <v>508</v>
       </c>
       <c r="E249" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F249" s="2">
         <v>1024853</v>
@@ -10895,7 +10897,7 @@
         <v>508</v>
       </c>
       <c r="E250" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F250" s="2">
         <v>1025024</v>
@@ -10925,7 +10927,7 @@
         <v>507</v>
       </c>
       <c r="E251" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F251" s="2">
         <v>1025027</v>
@@ -10955,7 +10957,7 @@
         <v>509</v>
       </c>
       <c r="E252" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F252" s="2">
         <v>1025365</v>
@@ -10985,7 +10987,7 @@
         <v>508</v>
       </c>
       <c r="E253" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F253" s="2">
         <v>1025423</v>
@@ -11002,7 +11004,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K253">
+  <autoFilter ref="A1:M253"/>
+  <sortState ref="A2:N253">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TBN_VertebrateList_Big5/protected_species_list_TBN.xlsx
+++ b/TBN_VertebrateList_Big5/protected_species_list_TBN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2361,10 +2361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prtected_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2397,9 +2393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prtected_status</t>
-  </si>
-  <si>
     <t>保育等級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2417,13 +2410,21 @@
   </si>
   <si>
     <t>rank_PSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protected_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protected_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2945,7 +2946,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2956,7 +2957,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B1" t="s">
         <v>746</v>
@@ -2980,15 +2981,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B5" t="s">
         <v>751</v>
@@ -2996,15 +2997,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B6" t="s">
         <v>760</v>
-      </c>
-      <c r="B6" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3012,7 +3013,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B8" t="s">
         <v>749</v>
@@ -3020,7 +3021,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B9" t="s">
         <v>750</v>
@@ -3028,10 +3029,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3063,7 @@
   <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3088,10 +3089,10 @@
         <v>744</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>757</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>0</v>
@@ -3106,7 +3107,7 @@
         <v>704</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3123,7 +3124,7 @@
         <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F2">
         <v>416105</v>
@@ -3155,7 +3156,7 @@
         <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F3">
         <v>1024882</v>
@@ -3185,7 +3186,7 @@
         <v>508</v>
       </c>
       <c r="E4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F4">
         <v>1024484</v>
@@ -3215,7 +3216,7 @@
         <v>509</v>
       </c>
       <c r="E5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F5">
         <v>1024697</v>
@@ -3245,7 +3246,7 @@
         <v>508</v>
       </c>
       <c r="E6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F6">
         <v>1024735</v>
@@ -3275,7 +3276,7 @@
         <v>509</v>
       </c>
       <c r="E7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F7">
         <v>1025759</v>
@@ -3305,7 +3306,7 @@
         <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F8">
         <v>1025768</v>
@@ -3335,7 +3336,7 @@
         <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F9">
         <v>1023992</v>
@@ -3365,7 +3366,7 @@
         <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F10" s="1">
         <v>1024731</v>
@@ -3397,7 +3398,7 @@
         <v>507</v>
       </c>
       <c r="E11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F11">
         <v>380580</v>
@@ -3429,7 +3430,7 @@
         <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F12">
         <v>380056</v>
@@ -3461,7 +3462,7 @@
         <v>507</v>
       </c>
       <c r="E13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F13">
         <v>380062</v>
@@ -3493,7 +3494,7 @@
         <v>507</v>
       </c>
       <c r="E14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F14">
         <v>380074</v>
@@ -3525,7 +3526,7 @@
         <v>508</v>
       </c>
       <c r="E15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F15">
         <v>380162</v>
@@ -3557,7 +3558,7 @@
         <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F16">
         <v>380163</v>
@@ -3589,7 +3590,7 @@
         <v>507</v>
       </c>
       <c r="E17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F17">
         <v>420867</v>
@@ -3621,7 +3622,7 @@
         <v>508</v>
       </c>
       <c r="E18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F18">
         <v>1023790</v>
@@ -3651,7 +3652,7 @@
         <v>508</v>
       </c>
       <c r="E19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F19">
         <v>1024659</v>
@@ -3681,7 +3682,7 @@
         <v>508</v>
       </c>
       <c r="E20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F20">
         <v>380230</v>
@@ -3713,7 +3714,7 @@
         <v>508</v>
       </c>
       <c r="E21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F21">
         <v>1024943</v>
@@ -3743,7 +3744,7 @@
         <v>508</v>
       </c>
       <c r="E22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F22">
         <v>380236</v>
@@ -3775,7 +3776,7 @@
         <v>509</v>
       </c>
       <c r="E23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F23">
         <v>380248</v>
@@ -3807,7 +3808,7 @@
         <v>508</v>
       </c>
       <c r="E24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F24">
         <v>380222</v>
@@ -3839,7 +3840,7 @@
         <v>508</v>
       </c>
       <c r="E25" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F25">
         <v>1025729</v>
@@ -3869,7 +3870,7 @@
         <v>507</v>
       </c>
       <c r="E26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F26">
         <v>380128</v>
@@ -3901,7 +3902,7 @@
         <v>508</v>
       </c>
       <c r="E27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F27">
         <v>380132</v>
@@ -3933,7 +3934,7 @@
         <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F28">
         <v>404565</v>
@@ -3965,7 +3966,7 @@
         <v>507</v>
       </c>
       <c r="E29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F29">
         <v>380153</v>
@@ -3997,7 +3998,7 @@
         <v>509</v>
       </c>
       <c r="E30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F30">
         <v>380257</v>
@@ -4029,7 +4030,7 @@
         <v>507</v>
       </c>
       <c r="E31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F31">
         <v>1025242</v>
@@ -4059,7 +4060,7 @@
         <v>509</v>
       </c>
       <c r="E32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F32">
         <v>380259</v>
@@ -4091,7 +4092,7 @@
         <v>507</v>
       </c>
       <c r="E33" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F33">
         <v>380260</v>
@@ -4123,7 +4124,7 @@
         <v>507</v>
       </c>
       <c r="E34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F34">
         <v>1025693</v>
@@ -4153,7 +4154,7 @@
         <v>508</v>
       </c>
       <c r="E35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F35">
         <v>1024716</v>
@@ -4183,7 +4184,7 @@
         <v>507</v>
       </c>
       <c r="E36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F36">
         <v>1023423</v>
@@ -4213,7 +4214,7 @@
         <v>507</v>
       </c>
       <c r="E37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F37">
         <v>1023424</v>
@@ -4243,7 +4244,7 @@
         <v>507</v>
       </c>
       <c r="E38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F38">
         <v>380099</v>
@@ -4275,7 +4276,7 @@
         <v>507</v>
       </c>
       <c r="E39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F39">
         <v>1023425</v>
@@ -4305,7 +4306,7 @@
         <v>507</v>
       </c>
       <c r="E40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F40">
         <v>1023426</v>
@@ -4335,7 +4336,7 @@
         <v>507</v>
       </c>
       <c r="E41" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F41">
         <v>380105</v>
@@ -4367,7 +4368,7 @@
         <v>507</v>
       </c>
       <c r="E42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F42">
         <v>1023965</v>
@@ -4397,7 +4398,7 @@
         <v>507</v>
       </c>
       <c r="E43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F43">
         <v>380109</v>
@@ -4429,7 +4430,7 @@
         <v>507</v>
       </c>
       <c r="E44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F44">
         <v>1023966</v>
@@ -4459,7 +4460,7 @@
         <v>507</v>
       </c>
       <c r="E45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F45">
         <v>1024209</v>
@@ -4489,7 +4490,7 @@
         <v>509</v>
       </c>
       <c r="E46" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F46">
         <v>421135</v>
@@ -4521,7 +4522,7 @@
         <v>507</v>
       </c>
       <c r="E47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F47">
         <v>1024812</v>
@@ -4551,7 +4552,7 @@
         <v>507</v>
       </c>
       <c r="E48" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F48">
         <v>1025068</v>
@@ -4581,7 +4582,7 @@
         <v>507</v>
       </c>
       <c r="E49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F49">
         <v>1025168</v>
@@ -4611,7 +4612,7 @@
         <v>507</v>
       </c>
       <c r="E50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F50">
         <v>1025516</v>
@@ -4641,7 +4642,7 @@
         <v>509</v>
       </c>
       <c r="E51" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F51">
         <v>1024929</v>
@@ -4671,7 +4672,7 @@
         <v>507</v>
       </c>
       <c r="E52" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F52">
         <v>1024354</v>
@@ -4701,7 +4702,7 @@
         <v>507</v>
       </c>
       <c r="E53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F53">
         <v>1024355</v>
@@ -4731,7 +4732,7 @@
         <v>507</v>
       </c>
       <c r="E54" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F54">
         <v>1024356</v>
@@ -4761,7 +4762,7 @@
         <v>508</v>
       </c>
       <c r="E55" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F55">
         <v>380285</v>
@@ -4793,7 +4794,7 @@
         <v>507</v>
       </c>
       <c r="E56" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F56">
         <v>380289</v>
@@ -4825,7 +4826,7 @@
         <v>507</v>
       </c>
       <c r="E57" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F57">
         <v>1025193</v>
@@ -4855,7 +4856,7 @@
         <v>509</v>
       </c>
       <c r="E58" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F58">
         <v>380293</v>
@@ -4887,7 +4888,7 @@
         <v>509</v>
       </c>
       <c r="E59" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F59">
         <v>380294</v>
@@ -4919,7 +4920,7 @@
         <v>508</v>
       </c>
       <c r="E60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F60">
         <v>380298</v>
@@ -4951,7 +4952,7 @@
         <v>507</v>
       </c>
       <c r="E61" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F61">
         <v>1024015</v>
@@ -4981,7 +4982,7 @@
         <v>508</v>
       </c>
       <c r="E62" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F62">
         <v>380336</v>
@@ -5013,7 +5014,7 @@
         <v>507</v>
       </c>
       <c r="E63" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F63">
         <v>404581</v>
@@ -5045,7 +5046,7 @@
         <v>507</v>
       </c>
       <c r="E64" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F64">
         <v>1024219</v>
@@ -5075,7 +5076,7 @@
         <v>508</v>
       </c>
       <c r="E65" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F65">
         <v>1024676</v>
@@ -5105,7 +5106,7 @@
         <v>508</v>
       </c>
       <c r="E66" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F66">
         <v>425192</v>
@@ -5137,7 +5138,7 @@
         <v>508</v>
       </c>
       <c r="E67" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F67">
         <v>1025318</v>
@@ -5167,7 +5168,7 @@
         <v>508</v>
       </c>
       <c r="E68" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F68">
         <v>1024598</v>
@@ -5197,7 +5198,7 @@
         <v>508</v>
       </c>
       <c r="E69" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F69">
         <v>380455</v>
@@ -5229,7 +5230,7 @@
         <v>507</v>
       </c>
       <c r="E70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F70">
         <v>1024395</v>
@@ -5259,7 +5260,7 @@
         <v>507</v>
       </c>
       <c r="E71" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F71">
         <v>404589</v>
@@ -5291,7 +5292,7 @@
         <v>507</v>
       </c>
       <c r="E72" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F72">
         <v>428597</v>
@@ -5323,7 +5324,7 @@
         <v>507</v>
       </c>
       <c r="E73" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F73">
         <v>428595</v>
@@ -5355,7 +5356,7 @@
         <v>508</v>
       </c>
       <c r="E74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F74">
         <v>380468</v>
@@ -5387,7 +5388,7 @@
         <v>508</v>
       </c>
       <c r="E75" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F75">
         <v>380467</v>
@@ -5419,7 +5420,7 @@
         <v>507</v>
       </c>
       <c r="E76" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F76">
         <v>1025642</v>
@@ -5449,7 +5450,7 @@
         <v>507</v>
       </c>
       <c r="E77" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F77">
         <v>1024234</v>
@@ -5479,7 +5480,7 @@
         <v>508</v>
       </c>
       <c r="E78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F78">
         <v>1024921</v>
@@ -5509,7 +5510,7 @@
         <v>508</v>
       </c>
       <c r="E79" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F79">
         <v>1025204</v>
@@ -5539,7 +5540,7 @@
         <v>508</v>
       </c>
       <c r="E80" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F80">
         <v>1025629</v>
@@ -5569,7 +5570,7 @@
         <v>508</v>
       </c>
       <c r="E81" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F81">
         <v>419684</v>
@@ -5601,7 +5602,7 @@
         <v>507</v>
       </c>
       <c r="E82" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F82">
         <v>1025011</v>
@@ -5631,7 +5632,7 @@
         <v>507</v>
       </c>
       <c r="E83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F83">
         <v>1025012</v>
@@ -5661,7 +5662,7 @@
         <v>508</v>
       </c>
       <c r="E84" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F84">
         <v>1025134</v>
@@ -5691,7 +5692,7 @@
         <v>508</v>
       </c>
       <c r="E85" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F85">
         <v>1025162</v>
@@ -5721,7 +5722,7 @@
         <v>507</v>
       </c>
       <c r="E86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F86">
         <v>432166</v>
@@ -5753,7 +5754,7 @@
         <v>511</v>
       </c>
       <c r="E87" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F87">
         <v>1025140</v>
@@ -5783,7 +5784,7 @@
         <v>507</v>
       </c>
       <c r="E88" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F88">
         <v>380436</v>
@@ -5815,7 +5816,7 @@
         <v>507</v>
       </c>
       <c r="E89" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F89">
         <v>380440</v>
@@ -5847,7 +5848,7 @@
         <v>508</v>
       </c>
       <c r="E90" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F90">
         <v>380442</v>
@@ -5879,7 +5880,7 @@
         <v>507</v>
       </c>
       <c r="E91" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F91">
         <v>1023443</v>
@@ -5909,7 +5910,7 @@
         <v>507</v>
       </c>
       <c r="E92" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F92">
         <v>419446</v>
@@ -5941,7 +5942,7 @@
         <v>508</v>
       </c>
       <c r="E93" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F93">
         <v>404634</v>
@@ -5973,7 +5974,7 @@
         <v>507</v>
       </c>
       <c r="E94" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F94">
         <v>432360</v>
@@ -6005,7 +6006,7 @@
         <v>507</v>
       </c>
       <c r="E95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F95">
         <v>417886</v>
@@ -6037,7 +6038,7 @@
         <v>507</v>
       </c>
       <c r="E96" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F96">
         <v>1025725</v>
@@ -6067,7 +6068,7 @@
         <v>508</v>
       </c>
       <c r="E97" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F97">
         <v>380486</v>
@@ -6099,7 +6100,7 @@
         <v>507</v>
       </c>
       <c r="E98" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F98">
         <v>1024117</v>
@@ -6129,7 +6130,7 @@
         <v>507</v>
       </c>
       <c r="E99" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F99">
         <v>1025227</v>
@@ -6159,7 +6160,7 @@
         <v>507</v>
       </c>
       <c r="E100" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F100">
         <v>419413</v>
@@ -6191,7 +6192,7 @@
         <v>507</v>
       </c>
       <c r="E101" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F101">
         <v>419414</v>
@@ -6223,7 +6224,7 @@
         <v>509</v>
       </c>
       <c r="E102" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F102">
         <v>419415</v>
@@ -6255,7 +6256,7 @@
         <v>509</v>
       </c>
       <c r="E103" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F103">
         <v>419416</v>
@@ -6287,7 +6288,7 @@
         <v>507</v>
       </c>
       <c r="E104" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F104">
         <v>417958</v>
@@ -6319,7 +6320,7 @@
         <v>509</v>
       </c>
       <c r="E105" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F105">
         <v>417808</v>
@@ -6351,7 +6352,7 @@
         <v>507</v>
       </c>
       <c r="E106" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F106">
         <v>1023655</v>
@@ -6381,7 +6382,7 @@
         <v>507</v>
       </c>
       <c r="E107" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F107">
         <v>1023656</v>
@@ -6411,7 +6412,7 @@
         <v>507</v>
       </c>
       <c r="E108" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F108">
         <v>1024414</v>
@@ -6441,7 +6442,7 @@
         <v>507</v>
       </c>
       <c r="E109" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F109">
         <v>380500</v>
@@ -6473,7 +6474,7 @@
         <v>507</v>
       </c>
       <c r="E110" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F110">
         <v>1024923</v>
@@ -6503,7 +6504,7 @@
         <v>507</v>
       </c>
       <c r="E111" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F111">
         <v>1025028</v>
@@ -6533,7 +6534,7 @@
         <v>507</v>
       </c>
       <c r="E112" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F112">
         <v>1025029</v>
@@ -6563,7 +6564,7 @@
         <v>507</v>
       </c>
       <c r="E113" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F113">
         <v>1025030</v>
@@ -6593,7 +6594,7 @@
         <v>507</v>
       </c>
       <c r="E114" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F114">
         <v>1025563</v>
@@ -6623,7 +6624,7 @@
         <v>507</v>
       </c>
       <c r="E115" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F115">
         <v>1025564</v>
@@ -6653,7 +6654,7 @@
         <v>509</v>
       </c>
       <c r="E116" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F116">
         <v>1025744</v>
@@ -6683,7 +6684,7 @@
         <v>507</v>
       </c>
       <c r="E117" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F117">
         <v>380622</v>
@@ -6715,7 +6716,7 @@
         <v>507</v>
       </c>
       <c r="E118" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F118">
         <v>380623</v>
@@ -6747,7 +6748,7 @@
         <v>507</v>
       </c>
       <c r="E119" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F119">
         <v>380627</v>
@@ -6779,7 +6780,7 @@
         <v>507</v>
       </c>
       <c r="E120" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F120">
         <v>380667</v>
@@ -6811,7 +6812,7 @@
         <v>507</v>
       </c>
       <c r="E121" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F121">
         <v>380674</v>
@@ -6843,7 +6844,7 @@
         <v>508</v>
       </c>
       <c r="E122" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F122">
         <v>380686</v>
@@ -6875,7 +6876,7 @@
         <v>509</v>
       </c>
       <c r="E123" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F123">
         <v>380630</v>
@@ -6907,7 +6908,7 @@
         <v>508</v>
       </c>
       <c r="E124" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F124">
         <v>427266</v>
@@ -6939,7 +6940,7 @@
         <v>510</v>
       </c>
       <c r="E125" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F125">
         <v>380642</v>
@@ -6971,7 +6972,7 @@
         <v>508</v>
       </c>
       <c r="E126" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F126">
         <v>380654</v>
@@ -7003,7 +7004,7 @@
         <v>507</v>
       </c>
       <c r="E127" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F127">
         <v>380657</v>
@@ -7035,7 +7036,7 @@
         <v>508</v>
       </c>
       <c r="E128" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F128">
         <v>380659</v>
@@ -7067,7 +7068,7 @@
         <v>507</v>
       </c>
       <c r="E129" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F129">
         <v>421733</v>
@@ -7099,7 +7100,7 @@
         <v>508</v>
       </c>
       <c r="E130" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F130">
         <v>1025481</v>
@@ -7129,7 +7130,7 @@
         <v>507</v>
       </c>
       <c r="E131" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F131">
         <v>421735</v>
@@ -7161,7 +7162,7 @@
         <v>507</v>
       </c>
       <c r="E132" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F132">
         <v>418194</v>
@@ -7193,7 +7194,7 @@
         <v>507</v>
       </c>
       <c r="E133" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F133">
         <v>427241</v>
@@ -7225,7 +7226,7 @@
         <v>507</v>
       </c>
       <c r="E134" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F134">
         <v>380702</v>
@@ -7257,7 +7258,7 @@
         <v>507</v>
       </c>
       <c r="E135" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F135">
         <v>1025036</v>
@@ -7287,7 +7288,7 @@
         <v>508</v>
       </c>
       <c r="E136" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F136">
         <v>380704</v>
@@ -7319,7 +7320,7 @@
         <v>509</v>
       </c>
       <c r="E137" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F137">
         <v>380611</v>
@@ -7351,7 +7352,7 @@
         <v>507</v>
       </c>
       <c r="E138" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F138">
         <v>417641</v>
@@ -7383,7 +7384,7 @@
         <v>509</v>
       </c>
       <c r="E139" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F139">
         <v>380612</v>
@@ -7415,7 +7416,7 @@
         <v>507</v>
       </c>
       <c r="E140" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F140">
         <v>380610</v>
@@ -7447,7 +7448,7 @@
         <v>507</v>
       </c>
       <c r="E141" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F141">
         <v>416138</v>
@@ -7479,7 +7480,7 @@
         <v>507</v>
       </c>
       <c r="E142" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F142">
         <v>416658</v>
@@ -7511,7 +7512,7 @@
         <v>508</v>
       </c>
       <c r="E143" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F143">
         <v>418420</v>
@@ -7543,7 +7544,7 @@
         <v>507</v>
       </c>
       <c r="E144" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F144">
         <v>380048</v>
@@ -7575,7 +7576,7 @@
         <v>507</v>
       </c>
       <c r="E145" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F145">
         <v>380049</v>
@@ -7607,7 +7608,7 @@
         <v>508</v>
       </c>
       <c r="E146" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F146">
         <v>380051</v>
@@ -7639,7 +7640,7 @@
         <v>508</v>
       </c>
       <c r="E147" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F147">
         <v>380052</v>
@@ -7671,7 +7672,7 @@
         <v>507</v>
       </c>
       <c r="E148" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F148">
         <v>380053</v>
@@ -7703,7 +7704,7 @@
         <v>509</v>
       </c>
       <c r="E149" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F149">
         <v>380054</v>
@@ -7735,7 +7736,7 @@
         <v>509</v>
       </c>
       <c r="E150" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F150">
         <v>413087</v>
@@ -7767,7 +7768,7 @@
         <v>509</v>
       </c>
       <c r="E151" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F151">
         <v>413088</v>
@@ -7799,7 +7800,7 @@
         <v>509</v>
       </c>
       <c r="E152" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F152">
         <v>380055</v>
@@ -7831,7 +7832,7 @@
         <v>507</v>
       </c>
       <c r="E153" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F153">
         <v>380992</v>
@@ -7863,7 +7864,7 @@
         <v>508</v>
       </c>
       <c r="E154" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F154">
         <v>383544</v>
@@ -7895,7 +7896,7 @@
         <v>508</v>
       </c>
       <c r="E155" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F155">
         <v>380993</v>
@@ -7927,7 +7928,7 @@
         <v>508</v>
       </c>
       <c r="E156" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F156">
         <v>381023</v>
@@ -7959,7 +7960,7 @@
         <v>508</v>
       </c>
       <c r="E157" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F157">
         <v>381024</v>
@@ -7991,7 +7992,7 @@
         <v>507</v>
       </c>
       <c r="E158" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F158">
         <v>381020</v>
@@ -8023,7 +8024,7 @@
         <v>509</v>
       </c>
       <c r="E159" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F159">
         <v>395247</v>
@@ -8055,7 +8056,7 @@
         <v>509</v>
       </c>
       <c r="E160" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F160">
         <v>381028</v>
@@ -8087,7 +8088,7 @@
         <v>508</v>
       </c>
       <c r="E161" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F161">
         <v>382917</v>
@@ -8119,7 +8120,7 @@
         <v>509</v>
       </c>
       <c r="E162" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F162">
         <v>380528</v>
@@ -8151,7 +8152,7 @@
         <v>509</v>
       </c>
       <c r="E163" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F163">
         <v>380529</v>
@@ -8183,7 +8184,7 @@
         <v>509</v>
       </c>
       <c r="E164" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F164">
         <v>380530</v>
@@ -8215,7 +8216,7 @@
         <v>509</v>
       </c>
       <c r="E165" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F165">
         <v>385002</v>
@@ -8247,7 +8248,7 @@
         <v>509</v>
       </c>
       <c r="E166" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F166">
         <v>385001</v>
@@ -8279,7 +8280,7 @@
         <v>509</v>
       </c>
       <c r="E167" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F167">
         <v>380531</v>
@@ -8311,7 +8312,7 @@
         <v>509</v>
       </c>
       <c r="E168" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F168">
         <v>380532</v>
@@ -8343,7 +8344,7 @@
         <v>509</v>
       </c>
       <c r="E169" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F169">
         <v>380541</v>
@@ -8375,7 +8376,7 @@
         <v>507</v>
       </c>
       <c r="E170" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F170">
         <v>380546</v>
@@ -8407,7 +8408,7 @@
         <v>509</v>
       </c>
       <c r="E171" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F171">
         <v>380548</v>
@@ -8439,7 +8440,7 @@
         <v>509</v>
       </c>
       <c r="E172" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F172">
         <v>380551</v>
@@ -8471,7 +8472,7 @@
         <v>507</v>
       </c>
       <c r="E173" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F173">
         <v>1023581</v>
@@ -8501,7 +8502,7 @@
         <v>507</v>
       </c>
       <c r="E174" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F174">
         <v>1024993</v>
@@ -8531,7 +8532,7 @@
         <v>507</v>
       </c>
       <c r="E175" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F175">
         <v>419698</v>
@@ -8563,7 +8564,7 @@
         <v>507</v>
       </c>
       <c r="E176" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F176">
         <v>1025543</v>
@@ -8593,7 +8594,7 @@
         <v>507</v>
       </c>
       <c r="E177" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F177">
         <v>1025545</v>
@@ -8623,7 +8624,7 @@
         <v>507</v>
       </c>
       <c r="E178" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F178">
         <v>1025547</v>
@@ -8653,7 +8654,7 @@
         <v>507</v>
       </c>
       <c r="E179" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F179">
         <v>1025652</v>
@@ -8683,7 +8684,7 @@
         <v>509</v>
       </c>
       <c r="E180" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F180">
         <v>419712</v>
@@ -8715,7 +8716,7 @@
         <v>509</v>
       </c>
       <c r="E181" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F181">
         <v>404624</v>
@@ -8747,7 +8748,7 @@
         <v>509</v>
       </c>
       <c r="E182" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F182">
         <v>404630</v>
@@ -8779,7 +8780,7 @@
         <v>509</v>
       </c>
       <c r="E183" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F183">
         <v>404632</v>
@@ -8811,7 +8812,7 @@
         <v>509</v>
       </c>
       <c r="E184" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F184">
         <v>380614</v>
@@ -8843,7 +8844,7 @@
         <v>509</v>
       </c>
       <c r="E185" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F185">
         <v>380615</v>
@@ -8875,7 +8876,7 @@
         <v>509</v>
       </c>
       <c r="E186" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F186">
         <v>380616</v>
@@ -8907,7 +8908,7 @@
         <v>509</v>
       </c>
       <c r="E187" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F187">
         <v>380617</v>
@@ -8939,7 +8940,7 @@
         <v>509</v>
       </c>
       <c r="E188" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F188">
         <v>380618</v>
@@ -8971,7 +8972,7 @@
         <v>507</v>
       </c>
       <c r="E189" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F189">
         <v>381941</v>
@@ -9003,7 +9004,7 @@
         <v>507</v>
       </c>
       <c r="E190" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F190">
         <v>382434</v>
@@ -9035,7 +9036,7 @@
         <v>507</v>
       </c>
       <c r="E191" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F191" s="2">
         <v>380102</v>
@@ -9067,7 +9068,7 @@
         <v>509</v>
       </c>
       <c r="E192" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F192" s="3">
         <v>380104</v>
@@ -9099,7 +9100,7 @@
         <v>507</v>
       </c>
       <c r="E193" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F193" s="3">
         <v>380291</v>
@@ -9131,7 +9132,7 @@
         <v>507</v>
       </c>
       <c r="E194" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F194" s="2">
         <v>380534</v>
@@ -9163,7 +9164,7 @@
         <v>507</v>
       </c>
       <c r="E195" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F195" s="2">
         <v>380535</v>
@@ -9195,7 +9196,7 @@
         <v>507</v>
       </c>
       <c r="E196" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F196" s="2">
         <v>380536</v>
@@ -9227,7 +9228,7 @@
         <v>507</v>
       </c>
       <c r="E197" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F197" s="2">
         <v>380537</v>
@@ -9259,7 +9260,7 @@
         <v>507</v>
       </c>
       <c r="E198" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F198" s="2">
         <v>380538</v>
@@ -9291,7 +9292,7 @@
         <v>507</v>
       </c>
       <c r="E199" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F199" s="2">
         <v>380539</v>
@@ -9323,7 +9324,7 @@
         <v>507</v>
       </c>
       <c r="E200" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F200" s="2">
         <v>380540</v>
@@ -9355,7 +9356,7 @@
         <v>507</v>
       </c>
       <c r="E201" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F201" s="2">
         <v>380542</v>
@@ -9387,7 +9388,7 @@
         <v>507</v>
       </c>
       <c r="E202" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F202" s="2">
         <v>380543</v>
@@ -9419,7 +9420,7 @@
         <v>507</v>
       </c>
       <c r="E203" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F203" s="2">
         <v>380544</v>
@@ -9451,7 +9452,7 @@
         <v>507</v>
       </c>
       <c r="E204" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F204" s="2">
         <v>380545</v>
@@ -9483,7 +9484,7 @@
         <v>507</v>
       </c>
       <c r="E205" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F205" s="4">
         <v>380547</v>
@@ -9515,7 +9516,7 @@
         <v>507</v>
       </c>
       <c r="E206" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F206" s="2">
         <v>380549</v>
@@ -9547,7 +9548,7 @@
         <v>507</v>
       </c>
       <c r="E207" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F207" s="2">
         <v>380550</v>
@@ -9579,7 +9580,7 @@
         <v>509</v>
       </c>
       <c r="E208" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F208" s="3">
         <v>380552</v>
@@ -9611,7 +9612,7 @@
         <v>507</v>
       </c>
       <c r="E209" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F209" s="2">
         <v>380554</v>
@@ -9643,7 +9644,7 @@
         <v>507</v>
       </c>
       <c r="E210" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F210" s="2">
         <v>380555</v>
@@ -9675,7 +9676,7 @@
         <v>507</v>
       </c>
       <c r="E211" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F211" s="2">
         <v>380556</v>
@@ -9707,7 +9708,7 @@
         <v>508</v>
       </c>
       <c r="E212" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F212" s="3">
         <v>380643</v>
@@ -9739,7 +9740,7 @@
         <v>509</v>
       </c>
       <c r="E213" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F213" s="3">
         <v>382788</v>
@@ -9771,7 +9772,7 @@
         <v>507</v>
       </c>
       <c r="E214" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F214" s="2">
         <v>385000</v>
@@ -9803,7 +9804,7 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F215" s="2">
         <v>385003</v>
@@ -9835,7 +9836,7 @@
         <v>507</v>
       </c>
       <c r="E216" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F216" s="2">
         <v>404551</v>
@@ -9867,7 +9868,7 @@
         <v>507</v>
       </c>
       <c r="E217" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F217" s="2">
         <v>404587</v>
@@ -9899,7 +9900,7 @@
         <v>507</v>
       </c>
       <c r="E218" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F218" s="2">
         <v>404588</v>
@@ -9931,7 +9932,7 @@
         <v>509</v>
       </c>
       <c r="E219" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F219" s="3">
         <v>416107</v>
@@ -9963,7 +9964,7 @@
         <v>507</v>
       </c>
       <c r="E220" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F220" s="2">
         <v>416110</v>
@@ -9995,7 +9996,7 @@
         <v>507</v>
       </c>
       <c r="E221" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F221" s="2">
         <v>417722</v>
@@ -10027,7 +10028,7 @@
         <v>507</v>
       </c>
       <c r="E222" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F222" s="3">
         <v>417867</v>
@@ -10059,7 +10060,7 @@
         <v>507</v>
       </c>
       <c r="E223" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F223" s="2">
         <v>418130</v>
@@ -10091,7 +10092,7 @@
         <v>507</v>
       </c>
       <c r="E224" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F224" s="2">
         <v>419631</v>
@@ -10123,7 +10124,7 @@
         <v>507</v>
       </c>
       <c r="E225" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F225" s="2">
         <v>420877</v>
@@ -10155,7 +10156,7 @@
         <v>507</v>
       </c>
       <c r="E226" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F226" s="2">
         <v>427142</v>
@@ -10187,7 +10188,7 @@
         <v>507</v>
       </c>
       <c r="E227" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F227" s="2">
         <v>427287</v>
@@ -10219,7 +10220,7 @@
         <v>507</v>
       </c>
       <c r="E228" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F228" s="2">
         <v>428071</v>
@@ -10251,7 +10252,7 @@
         <v>507</v>
       </c>
       <c r="E229" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F229" s="4">
         <v>428564</v>
@@ -10283,7 +10284,7 @@
         <v>509</v>
       </c>
       <c r="E230" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F230" s="3">
         <v>428568</v>
@@ -10315,7 +10316,7 @@
         <v>507</v>
       </c>
       <c r="E231" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F231" s="2">
         <v>430503</v>
@@ -10347,7 +10348,7 @@
         <v>507</v>
       </c>
       <c r="E232" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F232" s="3">
         <v>431229</v>
@@ -10379,7 +10380,7 @@
         <v>507</v>
       </c>
       <c r="E233" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F233" s="2">
         <v>432102</v>
@@ -10411,7 +10412,7 @@
         <v>509</v>
       </c>
       <c r="E234" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F234" s="3">
         <v>432194</v>
@@ -10443,7 +10444,7 @@
         <v>509</v>
       </c>
       <c r="E235" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F235" s="3">
         <v>432195</v>
@@ -10475,7 +10476,7 @@
         <v>507</v>
       </c>
       <c r="E236" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F236" s="4">
         <v>432368</v>
@@ -10507,7 +10508,7 @@
         <v>507</v>
       </c>
       <c r="E237" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F237" s="2">
         <v>1023421</v>
@@ -10537,7 +10538,7 @@
         <v>507</v>
       </c>
       <c r="E238" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F238" s="2">
         <v>1023422</v>
@@ -10567,7 +10568,7 @@
         <v>507</v>
       </c>
       <c r="E239" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F239" s="2">
         <v>1023625</v>
@@ -10597,7 +10598,7 @@
         <v>507</v>
       </c>
       <c r="E240" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F240" s="2">
         <v>1023666</v>
@@ -10627,7 +10628,7 @@
         <v>507</v>
       </c>
       <c r="E241" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F241" s="2">
         <v>1023692</v>
@@ -10657,7 +10658,7 @@
         <v>507</v>
       </c>
       <c r="E242" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F242" s="2">
         <v>1023759</v>
@@ -10687,7 +10688,7 @@
         <v>507</v>
       </c>
       <c r="E243" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F243" s="2">
         <v>1023768</v>
@@ -10717,7 +10718,7 @@
         <v>507</v>
       </c>
       <c r="E244" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F244" s="2">
         <v>1023769</v>
@@ -10747,7 +10748,7 @@
         <v>507</v>
       </c>
       <c r="E245" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F245" s="2">
         <v>1024353</v>
@@ -10777,7 +10778,7 @@
         <v>507</v>
       </c>
       <c r="E246" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F246" s="2">
         <v>1024454</v>
@@ -10807,7 +10808,7 @@
         <v>507</v>
       </c>
       <c r="E247" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F247" s="2">
         <v>1024552</v>
@@ -10837,7 +10838,7 @@
         <v>507</v>
       </c>
       <c r="E248" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F248" s="2">
         <v>1024731</v>
@@ -10867,7 +10868,7 @@
         <v>508</v>
       </c>
       <c r="E249" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F249" s="2">
         <v>1024853</v>
@@ -10897,7 +10898,7 @@
         <v>508</v>
       </c>
       <c r="E250" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F250" s="2">
         <v>1025024</v>
@@ -10927,7 +10928,7 @@
         <v>507</v>
       </c>
       <c r="E251" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F251" s="2">
         <v>1025027</v>
@@ -10957,7 +10958,7 @@
         <v>509</v>
       </c>
       <c r="E252" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F252" s="2">
         <v>1025365</v>
@@ -10987,7 +10988,7 @@
         <v>508</v>
       </c>
       <c r="E253" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F253" s="2">
         <v>1025423</v>
@@ -11004,7 +11005,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M253"/>
   <sortState ref="A2:N253">
     <sortCondition ref="I1"/>
   </sortState>

--- a/TBN_VertebrateList_Big5/protected_species_list_TBN.xlsx
+++ b/TBN_VertebrateList_Big5/protected_species_list_TBN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="欄位說明" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="880">
   <si>
     <t>tp_tid</t>
   </si>
@@ -2419,12 +2419,340 @@
   <si>
     <t>protected_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemadius oenochrous%(Synonym : Aeolesthes oenochrous)</t>
+  </si>
+  <si>
+    <t>Eupyrgops waltonianus(Synonym : Kashotonus multipunctatus)</t>
+  </si>
+  <si>
+    <t>Pachyrhynchus chlorites(Synonym : Pachyrrhynchus insularis)</t>
+  </si>
+  <si>
+    <t>Pachyrhynchus nobilis yamianus%(Synonym : Pachyrrhynchus yamianus)</t>
+  </si>
+  <si>
+    <t>Pachyrhynchus sarcitis kotoensis%(Synonym : Pachyrrhynchus kotoensis)</t>
+  </si>
+  <si>
+    <t>Pachyrhynchus sonani%(Synonym : Pachyrrhynchus sonani)</t>
+  </si>
+  <si>
+    <t>Pachyrhynchus tobafolius(Synonym : Pachyrrhynchus tobafolius)</t>
+  </si>
+  <si>
+    <t>Campsosternus watanabei</t>
+  </si>
+  <si>
+    <t>Aquatica hydrophila%(Synonym : Luciola hydrophila)</t>
+  </si>
+  <si>
+    <t>Pristolycus kanoi</t>
+  </si>
+  <si>
+    <t>Dorcus curvidens formosanus%(Synonym : Dorcus formosanus)</t>
+  </si>
+  <si>
+    <t>Dorcus schenklingi</t>
+  </si>
+  <si>
+    <t>Cheirotonus formosanus%(Synonym : Cheirotonus macleayi)</t>
+  </si>
+  <si>
+    <t>Formotosena seebohmi</t>
+  </si>
+  <si>
+    <t>Sasakia charonda</t>
+  </si>
+  <si>
+    <t>Papilio maraho%(Synonym : Agehana maraho)</t>
+  </si>
+  <si>
+    <t>Atrophaneura horishana</t>
+  </si>
+  <si>
+    <t>Ornithoptera alexandrae</t>
+  </si>
+  <si>
+    <t>Papilio chikae</t>
+  </si>
+  <si>
+    <t>Papilio homerus</t>
+  </si>
+  <si>
+    <t>Troides aeacus</t>
+  </si>
+  <si>
+    <t>Troides magellanus</t>
+  </si>
+  <si>
+    <t>Anotogaster klossi%(Synonym : Anotogaster sieboldii)</t>
+  </si>
+  <si>
+    <t>Phyllophorina kotoshoensis</t>
+  </si>
+  <si>
+    <t>Megacrania tsudai</t>
+  </si>
+  <si>
+    <t>Birgus latro</t>
+  </si>
+  <si>
+    <t>Conradilla caelata</t>
+  </si>
+  <si>
+    <t>Dromus dromas</t>
+  </si>
+  <si>
+    <t>Epioblasma curtisi</t>
+  </si>
+  <si>
+    <t>Epioblasma florentina</t>
+  </si>
+  <si>
+    <t>Epioblasma sampsonii</t>
+  </si>
+  <si>
+    <t>Epioblasma sulcata perobliqua</t>
+  </si>
+  <si>
+    <t>Epioblasma torulosa gubernaculum</t>
+  </si>
+  <si>
+    <t>Epioblasma torulosa torulosa</t>
+  </si>
+  <si>
+    <t>Epioblasma turgidula</t>
+  </si>
+  <si>
+    <t>Epioblasma walkeri</t>
+  </si>
+  <si>
+    <t>Fusconaia cuneolus</t>
+  </si>
+  <si>
+    <t>Fusconaia edgariana</t>
+  </si>
+  <si>
+    <t>Lampsilis higginsii</t>
+  </si>
+  <si>
+    <t>Lampsilis orbiculata orbiculata</t>
+  </si>
+  <si>
+    <t>Lampsilis satur</t>
+  </si>
+  <si>
+    <t>Lampsilis virescens</t>
+  </si>
+  <si>
+    <t>Plethobasus cicatricosus</t>
+  </si>
+  <si>
+    <t>Plethobasus cooperianus</t>
+  </si>
+  <si>
+    <t>Pleurobema plenum</t>
+  </si>
+  <si>
+    <t>Potamilus capax</t>
+  </si>
+  <si>
+    <t>Quadrula intermedia</t>
+  </si>
+  <si>
+    <t>Quadrula sparsa</t>
+  </si>
+  <si>
+    <t>Toxolasma cylindrella</t>
+  </si>
+  <si>
+    <t>Unio nickliniana</t>
+  </si>
+  <si>
+    <t>Unio tampicoensis tecomatensis</t>
+  </si>
+  <si>
+    <t>Villosa trabalis</t>
+  </si>
+  <si>
+    <t>Achatinella spp.</t>
+  </si>
+  <si>
+    <t>妖艷吉丁蟲</t>
+  </si>
+  <si>
+    <t>霧社血斑天牛</t>
+  </si>
+  <si>
+    <t>碎斑硬象鼻蟲</t>
+  </si>
+  <si>
+    <t>白點球背象鼻蟲</t>
+  </si>
+  <si>
+    <t>斷紋球背象鼻蟲</t>
+  </si>
+  <si>
+    <t>大圓斑球背象鼻蟲</t>
+  </si>
+  <si>
+    <t>條紋球背象鼻蟲</t>
+  </si>
+  <si>
+    <t>小圓斑球背象鼻蟲</t>
+  </si>
+  <si>
+    <t>虹彩叩頭蟲(彩虹叩頭蟲)</t>
+  </si>
+  <si>
+    <t>黃胸黑翅螢</t>
+  </si>
+  <si>
+    <t>鹿野氏黑脈螢</t>
+  </si>
+  <si>
+    <t>臺灣大鍬形蟲</t>
+  </si>
+  <si>
+    <t>長角大鍬形蟲</t>
+  </si>
+  <si>
+    <t>臺灣長臂金龜</t>
+  </si>
+  <si>
+    <t>臺灣爺蟬</t>
+  </si>
+  <si>
+    <t>大紫蛺蝶</t>
+  </si>
+  <si>
+    <t>寬尾鳳蝶</t>
+  </si>
+  <si>
+    <t>曙鳳蝶</t>
+  </si>
+  <si>
+    <t>雅麗珊卓女王鳥翼蝶(女王亞歷山大巨鳳蝶)</t>
+  </si>
+  <si>
+    <t>呂宋鳳蝶</t>
+  </si>
+  <si>
+    <t>荷馬鳳蝶(荷西鳳蝶)</t>
+  </si>
+  <si>
+    <t>黃裳鳳蝶</t>
+  </si>
+  <si>
+    <t>珠光鳳蝶</t>
+  </si>
+  <si>
+    <t>無霸勾蜓</t>
+  </si>
+  <si>
+    <t>蘭嶼大葉螽蟴</t>
+  </si>
+  <si>
+    <t>津田氏大頭竹節蟲</t>
+  </si>
+  <si>
+    <t>椰子蟹(八卦蟹)</t>
+  </si>
+  <si>
+    <t>鳥翼真珠蚌</t>
+  </si>
+  <si>
+    <t>單峰駱駝真珠蚌</t>
+  </si>
+  <si>
+    <t>短真珠蚌</t>
+  </si>
+  <si>
+    <t>黃花真珠蚌</t>
+  </si>
+  <si>
+    <t>辛布森氏真珠蚌</t>
+  </si>
+  <si>
+    <t>白貓爪真珠蚌</t>
+  </si>
+  <si>
+    <t>綠花真珠蚌</t>
+  </si>
+  <si>
+    <t>瘤花真珠蚌</t>
+  </si>
+  <si>
+    <t>大花真珠蚌</t>
+  </si>
+  <si>
+    <t>棕花真珠蚌</t>
+  </si>
+  <si>
+    <t>細線豬趾真珠蚌</t>
+  </si>
+  <si>
+    <t>閃爍豬趾真珠蚌</t>
+  </si>
+  <si>
+    <t>何金氏真珠蚌</t>
+  </si>
+  <si>
+    <t>粉紅真珠蚌</t>
+  </si>
+  <si>
+    <t>素袖珍真珠蚌</t>
+  </si>
+  <si>
+    <t>阿拉巴馬真珠蚌</t>
+  </si>
+  <si>
+    <t>白疙瘩真珠蚌</t>
+  </si>
+  <si>
+    <t>橘足疙瘩真珠蚌</t>
+  </si>
+  <si>
+    <t>粗豬趾真珠蚌</t>
+  </si>
+  <si>
+    <t>肥袖珍真珠蚌</t>
+  </si>
+  <si>
+    <t>康布蘭德猴面真珠蚌</t>
+  </si>
+  <si>
+    <t>阿帕拉契山猴面真珠蚌</t>
+  </si>
+  <si>
+    <t>侏儒真珠蚌</t>
+  </si>
+  <si>
+    <t>尼克林氏真珠蚌</t>
+  </si>
+  <si>
+    <t>墨西哥真珠蚌</t>
+  </si>
+  <si>
+    <t>康布蘭德豆真珠蚌</t>
+  </si>
+  <si>
+    <t>小瑪瑙螺屬所有種</t>
+  </si>
+  <si>
+    <t>Buprestis mirabilis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buprestis (Akiyamaia) mirabilis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2945,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3060,22 +3388,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11002,6 +11334,603 @@
       </c>
       <c r="J253" t="s">
         <v>742</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>879</v>
+      </c>
+      <c r="B254" t="s">
+        <v>878</v>
+      </c>
+      <c r="C254" t="s">
+        <v>824</v>
+      </c>
+      <c r="D254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>771</v>
+      </c>
+      <c r="C255" t="s">
+        <v>825</v>
+      </c>
+      <c r="D255" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>772</v>
+      </c>
+      <c r="C256" t="s">
+        <v>826</v>
+      </c>
+      <c r="D256" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>773</v>
+      </c>
+      <c r="C257" t="s">
+        <v>827</v>
+      </c>
+      <c r="D257" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>774</v>
+      </c>
+      <c r="C258" t="s">
+        <v>828</v>
+      </c>
+      <c r="D258" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>775</v>
+      </c>
+      <c r="C259" t="s">
+        <v>829</v>
+      </c>
+      <c r="D259" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>776</v>
+      </c>
+      <c r="C260" t="s">
+        <v>830</v>
+      </c>
+      <c r="D260" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>777</v>
+      </c>
+      <c r="C261" t="s">
+        <v>831</v>
+      </c>
+      <c r="D261" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>778</v>
+      </c>
+      <c r="C262" t="s">
+        <v>832</v>
+      </c>
+      <c r="D262" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>779</v>
+      </c>
+      <c r="C263" t="s">
+        <v>833</v>
+      </c>
+      <c r="D263" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>780</v>
+      </c>
+      <c r="C264" t="s">
+        <v>834</v>
+      </c>
+      <c r="D264" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>781</v>
+      </c>
+      <c r="C265" t="s">
+        <v>835</v>
+      </c>
+      <c r="D265" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" t="s">
+        <v>836</v>
+      </c>
+      <c r="D266" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>783</v>
+      </c>
+      <c r="C267" t="s">
+        <v>837</v>
+      </c>
+      <c r="D267" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>784</v>
+      </c>
+      <c r="C268" t="s">
+        <v>838</v>
+      </c>
+      <c r="D268" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>785</v>
+      </c>
+      <c r="C269" t="s">
+        <v>839</v>
+      </c>
+      <c r="D269" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>786</v>
+      </c>
+      <c r="C270" t="s">
+        <v>840</v>
+      </c>
+      <c r="D270" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>787</v>
+      </c>
+      <c r="C271" t="s">
+        <v>841</v>
+      </c>
+      <c r="D271" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>788</v>
+      </c>
+      <c r="C272" t="s">
+        <v>842</v>
+      </c>
+      <c r="D272" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>789</v>
+      </c>
+      <c r="C273" t="s">
+        <v>843</v>
+      </c>
+      <c r="D273" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>790</v>
+      </c>
+      <c r="C274" t="s">
+        <v>844</v>
+      </c>
+      <c r="D274" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>791</v>
+      </c>
+      <c r="C275" t="s">
+        <v>845</v>
+      </c>
+      <c r="D275" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>792</v>
+      </c>
+      <c r="C276" t="s">
+        <v>846</v>
+      </c>
+      <c r="D276" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>793</v>
+      </c>
+      <c r="C277" t="s">
+        <v>847</v>
+      </c>
+      <c r="D277" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>794</v>
+      </c>
+      <c r="C278" t="s">
+        <v>848</v>
+      </c>
+      <c r="D278" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>795</v>
+      </c>
+      <c r="C279" t="s">
+        <v>849</v>
+      </c>
+      <c r="D279" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>796</v>
+      </c>
+      <c r="C280" t="s">
+        <v>850</v>
+      </c>
+      <c r="D280" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>797</v>
+      </c>
+      <c r="C281" t="s">
+        <v>851</v>
+      </c>
+      <c r="D281" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>798</v>
+      </c>
+      <c r="C282" t="s">
+        <v>852</v>
+      </c>
+      <c r="D282" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>799</v>
+      </c>
+      <c r="C283" t="s">
+        <v>853</v>
+      </c>
+      <c r="D283" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>800</v>
+      </c>
+      <c r="C284" t="s">
+        <v>854</v>
+      </c>
+      <c r="D284" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>801</v>
+      </c>
+      <c r="C285" t="s">
+        <v>855</v>
+      </c>
+      <c r="D285" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>802</v>
+      </c>
+      <c r="C286" t="s">
+        <v>856</v>
+      </c>
+      <c r="D286" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>803</v>
+      </c>
+      <c r="C287" t="s">
+        <v>857</v>
+      </c>
+      <c r="D287" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>804</v>
+      </c>
+      <c r="C288" t="s">
+        <v>858</v>
+      </c>
+      <c r="D288" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>805</v>
+      </c>
+      <c r="C289" t="s">
+        <v>859</v>
+      </c>
+      <c r="D289" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>806</v>
+      </c>
+      <c r="C290" t="s">
+        <v>860</v>
+      </c>
+      <c r="D290" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>807</v>
+      </c>
+      <c r="C291" t="s">
+        <v>861</v>
+      </c>
+      <c r="D291" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>808</v>
+      </c>
+      <c r="C292" t="s">
+        <v>862</v>
+      </c>
+      <c r="D292" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>809</v>
+      </c>
+      <c r="C293" t="s">
+        <v>863</v>
+      </c>
+      <c r="D293" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>810</v>
+      </c>
+      <c r="C294" t="s">
+        <v>864</v>
+      </c>
+      <c r="D294" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>811</v>
+      </c>
+      <c r="C295" t="s">
+        <v>865</v>
+      </c>
+      <c r="D295" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>812</v>
+      </c>
+      <c r="C296" t="s">
+        <v>866</v>
+      </c>
+      <c r="D296" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>813</v>
+      </c>
+      <c r="C297" t="s">
+        <v>867</v>
+      </c>
+      <c r="D297" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>814</v>
+      </c>
+      <c r="C298" t="s">
+        <v>868</v>
+      </c>
+      <c r="D298" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>815</v>
+      </c>
+      <c r="C299" t="s">
+        <v>869</v>
+      </c>
+      <c r="D299" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>816</v>
+      </c>
+      <c r="C300" t="s">
+        <v>870</v>
+      </c>
+      <c r="D300" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>817</v>
+      </c>
+      <c r="C301" t="s">
+        <v>871</v>
+      </c>
+      <c r="D301" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>818</v>
+      </c>
+      <c r="C302" t="s">
+        <v>872</v>
+      </c>
+      <c r="D302" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>819</v>
+      </c>
+      <c r="C303" t="s">
+        <v>873</v>
+      </c>
+      <c r="D303" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>820</v>
+      </c>
+      <c r="C304" t="s">
+        <v>874</v>
+      </c>
+      <c r="D304" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>821</v>
+      </c>
+      <c r="C305" t="s">
+        <v>875</v>
+      </c>
+      <c r="D305" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>822</v>
+      </c>
+      <c r="C306" t="s">
+        <v>876</v>
+      </c>
+      <c r="D306" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>823</v>
+      </c>
+      <c r="C307" t="s">
+        <v>877</v>
+      </c>
+      <c r="D307" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
